--- a/atletas_antioquia/data/processed/results.xlsx
+++ b/atletas_antioquia/data/processed/results.xlsx
@@ -489,10 +489,10 @@
         <v>0.5058752983225573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7100014686584473</v>
+        <v>0.8600089550018311</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0339968204498291</v>
+        <v>0.03699111938476562</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9348583683316951</v>
+        <v>0.9349165253102402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9731187796484048</v>
+        <v>0.9740489256813319</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9536049585270258</v>
+        <v>0.9540816326530612</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6947259230507836</v>
+        <v>0.6951909960672472</v>
       </c>
       <c r="F3" t="n">
-        <v>62.88285136222839</v>
+        <v>68.73090529441833</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3870007991790771</v>
+        <v>0.4500274658203125</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +539,10 @@
         <v>0.5616593358399863</v>
       </c>
       <c r="F4" t="n">
-        <v>131.9750416278839</v>
+        <v>129.388368844986</v>
       </c>
       <c r="G4" t="n">
-        <v>8.389999866485596</v>
+        <v>9.366003274917603</v>
       </c>
     </row>
   </sheetData>
